--- a/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/depth_multiplier_for_sulphur_contamination.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/depth_multiplier_for_sulphur_contamination.xlsx
@@ -3790,28 +3790,28 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="106">
@@ -3822,28 +3822,28 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="107">
@@ -3854,28 +3854,28 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="108">
@@ -3886,28 +3886,28 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H108" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="109">
@@ -3918,28 +3918,28 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="110">
@@ -3950,28 +3950,28 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="111">
@@ -3982,28 +3982,28 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="112">
@@ -4014,28 +4014,28 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="113">
@@ -4046,28 +4046,28 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="114">
@@ -4078,28 +4078,28 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H114" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="115">
@@ -4110,28 +4110,28 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="116">
@@ -4142,28 +4142,28 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="117">
@@ -4174,28 +4174,28 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="118">
@@ -4206,28 +4206,28 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="119">
@@ -4238,28 +4238,28 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G119" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="120">
@@ -4270,28 +4270,28 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H120" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="121">
@@ -4302,28 +4302,28 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G121" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="122">
@@ -4334,28 +4334,28 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="123">
@@ -4366,28 +4366,28 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="124">
@@ -4398,28 +4398,28 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="125">
@@ -4430,28 +4430,28 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="126">
@@ -4462,28 +4462,28 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="127">
@@ -4494,28 +4494,28 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G127" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="128">
@@ -4526,28 +4526,28 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="129">
@@ -4558,28 +4558,28 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H129" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="130">
@@ -4590,28 +4590,28 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G130" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="131">
@@ -4622,28 +4622,28 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G131" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="132">
@@ -4654,28 +4654,28 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G132" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="133">
@@ -4686,28 +4686,28 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G133" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="134">
@@ -4718,28 +4718,28 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G134" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="135">
@@ -4750,28 +4750,28 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="136">
@@ -4782,28 +4782,28 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G136" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="137">
@@ -4814,28 +4814,28 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G137" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="138">
@@ -4846,28 +4846,28 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="139">
@@ -4878,28 +4878,28 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G139" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H139" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="140">
@@ -4910,28 +4910,28 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G140" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="141">
@@ -4942,28 +4942,28 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G141" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="142">
@@ -4974,28 +4974,28 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="143">
@@ -5006,28 +5006,28 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G143" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H143" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="144">

--- a/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/depth_multiplier_for_sulphur_contamination.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/depth_multiplier_for_sulphur_contamination.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,28 +622,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="7">
@@ -651,28 +651,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -711,36 +711,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -839,68 +819,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1003,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1070,28 +1010,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="21">
@@ -1166,28 +1106,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="24">
@@ -1198,61 +1138,41 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1351,100 +1271,60 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C30" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1454,28 +1334,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="33">
@@ -1639,36 +1519,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1678,61 +1538,41 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.024999999998</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1726190476666667</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3511904761666667</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.5297619046666666</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.8869047619999999</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.9880952381666666</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1838,28 +1678,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="45">
@@ -1870,28 +1710,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="46">
@@ -1934,28 +1774,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="48">
@@ -1995,28 +1835,28 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2030,28 +1870,28 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="51">
@@ -2062,28 +1902,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="52">
@@ -2091,28 +1931,28 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C52" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2126,28 +1966,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="54">
@@ -2158,28 +1998,28 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="55">
@@ -2190,28 +2030,28 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="56">
@@ -2347,28 +2187,28 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C60" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2411,28 +2251,28 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E62" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G62" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2443,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E63" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G63" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2475,31 +2315,31 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E64" t="n">
-        <v>0.443877551</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G64" t="n">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="65">
@@ -2507,31 +2347,31 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E65" t="n">
-        <v>0.443877551</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G65" t="n">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="66">
@@ -2539,28 +2379,28 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -2571,31 +2411,31 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E67" t="n">
-        <v>0.443877551</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G67" t="n">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="68">
@@ -2603,28 +2443,28 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G68" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -2635,28 +2475,28 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E69" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G69" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -2667,28 +2507,28 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E70" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G70" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -2699,31 +2539,31 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E71" t="n">
-        <v>0.443877551</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G71" t="n">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="72">
@@ -2731,28 +2571,28 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E72" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G72" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -2795,28 +2635,28 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E74" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -2827,124 +2667,84 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E75" t="n">
-        <v>0.443877551</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G75" t="n">
-        <v>0.75</v>
+        <v>0.53125</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.03809523809371429</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.1547619047571429</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.2908163265714285</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.443877551</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.5969387754285714</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.9030612245714286</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.9897959184285714</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.03809523809371429</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.1547619047571429</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.2908163265714285</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.443877551</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.5969387754285714</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.9030612245714286</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.9897959184285714</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E78" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G78" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -2955,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E79" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G79" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3019,28 +2819,28 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E81" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G81" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -3051,28 +2851,28 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E82" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G82" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3083,28 +2883,28 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03809523809371429</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1547619047571429</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2908163265714285</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E83" t="n">
-        <v>0.443877551</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5969387754285714</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G83" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9030612245714286</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9897959184285714</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3150,28 +2950,28 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="86">
@@ -3435,28 +3235,28 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -3694,28 +3494,28 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="103">
@@ -3790,28 +3590,28 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G105" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J105" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3819,31 +3619,31 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D106" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G106" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J106" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3854,28 +3654,28 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D107" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G107" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I107" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J107" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3918,28 +3718,28 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D109" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G109" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I109" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J109" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3950,28 +3750,28 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D110" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G110" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J110" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3982,28 +3782,28 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G111" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J111" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4014,28 +3814,28 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D112" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G112" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I112" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J112" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4046,28 +3846,28 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D113" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G113" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I113" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J113" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4075,31 +3875,31 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D114" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G114" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I114" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J114" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4135,67 +3935,47 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0187499999985</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.12946428575</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.2633928571249999</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.3973214285</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.6651785714999999</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.7991071428749998</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.93303571425</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D117" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G117" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I117" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J117" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4203,95 +3983,75 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D118" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G118" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I118" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J118" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0187499999985</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.12946428575</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.2633928571249999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.3973214285</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.6651785714999999</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.7991071428749998</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.93303571425</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D120" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G120" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J120" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4299,31 +4059,31 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0187499999985</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D121" t="n">
-        <v>0.12946428575</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.443877551</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3973214285</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G121" t="n">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="H121" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I121" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J121" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4334,28 +4094,28 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D122" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G122" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I122" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J122" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4430,28 +4190,28 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D125" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G125" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I125" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J125" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4462,28 +4222,28 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D126" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G126" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I126" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J126" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4494,28 +4254,28 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D127" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G127" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J127" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4526,28 +4286,28 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D128" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G128" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J128" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4558,28 +4318,28 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D129" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G129" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J129" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4590,28 +4350,28 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G130" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I130" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J130" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4622,28 +4382,28 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D131" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G131" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I131" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J131" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4654,28 +4414,28 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G132" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J132" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4686,28 +4446,28 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D133" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G133" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I133" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J133" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -4718,61 +4478,41 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D134" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G134" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I134" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J134" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0187499999985</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.12946428575</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.2633928571249999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.3973214285</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.6651785714999999</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.7991071428749998</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.93303571425</v>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4782,28 +4522,28 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D136" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G136" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I136" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J136" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4814,28 +4554,28 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D137" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G137" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I137" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J137" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4846,28 +4586,28 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D138" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G138" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J138" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4878,28 +4618,28 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D139" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F139" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G139" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I139" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J139" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -4910,28 +4650,28 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D140" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G140" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J140" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4942,28 +4682,28 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0187499999985</v>
+        <v>0.024999999998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.12946428575</v>
+        <v>0.1726190476666667</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2633928571249999</v>
+        <v>0.3511904761666667</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3973214285</v>
+        <v>0.5297619046666666</v>
       </c>
       <c r="G141" t="n">
-        <v>0.53125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>0.6651785714999999</v>
+        <v>0.8869047619999999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.7991071428749998</v>
+        <v>0.9880952381666666</v>
       </c>
       <c r="J141" t="n">
-        <v>0.93303571425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5038,28 +4778,28 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G144" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="145">
@@ -5070,28 +4810,28 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G145" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="146">
@@ -5102,28 +4842,28 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G146" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="147">
@@ -5195,28 +4935,28 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C149" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H149" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I149" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -5230,28 +4970,28 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G150" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="151">
@@ -5259,28 +4999,28 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C151" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G151" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -5291,28 +5031,28 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C152" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G152" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -5422,28 +5162,28 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G156" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H156" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J156" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="157">
@@ -5454,28 +5194,28 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G157" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H157" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="158">
@@ -5515,28 +5255,28 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C159" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G159" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -5579,28 +5319,28 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C161" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G161" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -5614,28 +5354,28 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.024999999998</v>
+        <v>0.0187499999985</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.12946428575</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.2633928571249999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.3973214285</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.6651785714999999</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.7991071428749998</v>
       </c>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>0.93303571425</v>
       </c>
     </row>
     <row r="163">
@@ -5643,28 +5383,28 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>0.03809523809371429</v>
       </c>
       <c r="C163" t="n">
-        <v>0.024999999998</v>
+        <v>0.1547619047571429</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1726190476666667</v>
+        <v>0.2908163265714285</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3511904761666667</v>
+        <v>0.443877551</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5297619046666666</v>
+        <v>0.5969387754285714</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8869047619999999</v>
+        <v>0.9030612245714286</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9880952381666666</v>
+        <v>0.9897959184285714</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -5732,6 +5472,422 @@
       </c>
       <c r="J165" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0187499999985</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.12946428575</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.2633928571249999</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.3973214285</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.6651785714999999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.7991071428749998</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.93303571425</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0187499999985</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.12946428575</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2633928571249999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3973214285</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.6651785714999999</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.7991071428749998</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.93303571425</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0187499999985</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.12946428575</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2633928571249999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.3973214285</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.6651785714999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.7991071428749998</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.93303571425</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.03809523809371429</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1547619047571429</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.2908163265714285</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.443877551</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.5969387754285714</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.9030612245714286</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.9897959184285714</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0187499999985</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.12946428575</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.2633928571249999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.3973214285</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.6651785714999999</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.7991071428749998</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.93303571425</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.024999999998</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1726190476666667</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3511904761666667</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5297619046666666</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.8869047619999999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.9880952381666666</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0187499999985</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.12946428575</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.2633928571249999</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.3973214285</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.6651785714999999</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.7991071428749998</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.93303571425</v>
       </c>
     </row>
   </sheetData>
